--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_20.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_20.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9879138869775934</v>
+        <v>0.9254490028310117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.72953527602599</v>
+        <v>0.7006876982692558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7156772174467617</v>
+        <v>0.6285841094129544</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9518025347776448</v>
+        <v>0.900007436054504</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05072283086311108</v>
+        <v>0.3128745869799853</v>
       </c>
       <c r="G2" t="n">
-        <v>1.808598854589746</v>
+        <v>2.00150273987991</v>
       </c>
       <c r="H2" t="n">
-        <v>1.017006107210776</v>
+        <v>1.328533104699149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0511295474562893</v>
+        <v>0.1667592467388024</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5277784368693392</v>
+        <v>1.441004764817344</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2252172969891768</v>
+        <v>0.5593519348138392</v>
       </c>
       <c r="L2" t="n">
-        <v>1.007074797866775</v>
+        <v>0.7443965811348974</v>
       </c>
       <c r="M2" t="n">
-        <v>0.234805263586082</v>
+        <v>0.5831647046969937</v>
       </c>
       <c r="N2" t="n">
-        <v>135.9627583137271</v>
+        <v>36.32390569862204</v>
       </c>
       <c r="O2" t="n">
-        <v>215.1896869301601</v>
+        <v>57.04479472138145</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9879028361470452</v>
+        <v>0.927271021839945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7292803162827595</v>
+        <v>0.7003464160521763</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7140407243873168</v>
+        <v>0.6328730538576014</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9478058009674906</v>
+        <v>0.8997265838677784</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0507692088349003</v>
+        <v>0.3052279629704164</v>
       </c>
       <c r="G3" t="n">
-        <v>1.81030377156671</v>
+        <v>2.00378489563698</v>
       </c>
       <c r="H3" t="n">
-        <v>1.022859747995091</v>
+        <v>1.313191799107934</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05536942169186737</v>
+        <v>0.1672276285589628</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5342171416693178</v>
+        <v>1.458192862959979</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2253202361859678</v>
+        <v>0.5524744002851321</v>
       </c>
       <c r="L3" t="n">
-        <v>1.007081266645632</v>
+        <v>0.7506435034512401</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2349125851175938</v>
+        <v>0.5759943792849405</v>
       </c>
       <c r="N3" t="n">
-        <v>135.9609304669263</v>
+        <v>36.373392723957</v>
       </c>
       <c r="O3" t="n">
-        <v>215.1878590833593</v>
+        <v>57.0942817467164</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9878753544278198</v>
+        <v>0.9274729558128073</v>
       </c>
       <c r="C4" t="n">
-        <v>0.729014854557116</v>
+        <v>0.6998689399394546</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7123848316697671</v>
+        <v>0.6334733127817676</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9435586282786194</v>
+        <v>0.8989141192545286</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05088454373153015</v>
+        <v>0.3043804892845406</v>
       </c>
       <c r="G4" t="n">
-        <v>1.812078915348427</v>
+        <v>2.006977780601325</v>
       </c>
       <c r="H4" t="n">
-        <v>1.028782780231589</v>
+        <v>1.311044707741204</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05987497020046347</v>
+        <v>0.1685825891836482</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5411781336366128</v>
+        <v>1.461573396292928</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2255760265000032</v>
+        <v>0.5517068871099405</v>
       </c>
       <c r="L4" t="n">
-        <v>1.007097353505666</v>
+        <v>0.7513358485010536</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2351792649548567</v>
+        <v>0.5751941914849097</v>
       </c>
       <c r="N4" t="n">
-        <v>135.9563921220759</v>
+        <v>36.37895350139501</v>
       </c>
       <c r="O4" t="n">
-        <v>215.183320738509</v>
+        <v>57.09984252415442</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9878316261397738</v>
+        <v>0.9275611304085536</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7287389747867135</v>
+        <v>0.6996094279254329</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7107098259211948</v>
+        <v>0.6337528172972835</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9390621414164365</v>
+        <v>0.8984499093882526</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05106806200199326</v>
+        <v>0.3040104393687265</v>
       </c>
       <c r="G5" t="n">
-        <v>1.813923724643418</v>
+        <v>2.008713138634032</v>
       </c>
       <c r="H5" t="n">
-        <v>1.034774178671819</v>
+        <v>1.310044936295806</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06464499985546547</v>
+        <v>0.1693567596276732</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5484760828406313</v>
+        <v>1.463204091139836</v>
       </c>
       <c r="K5" t="n">
-        <v>0.225982437375105</v>
+        <v>0.5513714168949334</v>
       </c>
       <c r="L5" t="n">
-        <v>1.007122950552328</v>
+        <v>0.7516381614007552</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2356029775822981</v>
+        <v>0.5748444396083306</v>
       </c>
       <c r="N5" t="n">
-        <v>135.9491919738364</v>
+        <v>36.38138647627363</v>
       </c>
       <c r="O5" t="n">
-        <v>215.1761205902695</v>
+        <v>57.10227549903304</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9877717191109742</v>
+        <v>0.9276023005486974</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7284529480683151</v>
+        <v>0.6994844830213028</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7090164683539726</v>
+        <v>0.6338877928402407</v>
       </c>
       <c r="E6" t="n">
-        <v>0.934318628476164</v>
+        <v>0.8982052297077706</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05131947898640213</v>
+        <v>0.3038376570977636</v>
       </c>
       <c r="G6" t="n">
-        <v>1.815836386626381</v>
+        <v>2.009548645783267</v>
       </c>
       <c r="H6" t="n">
-        <v>1.040831220503259</v>
+        <v>1.30956213660498</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06967708336587983</v>
+        <v>0.1697648159630595</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5559359080276027</v>
+        <v>1.464005115005917</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2265380298899108</v>
+        <v>0.5512147105237337</v>
       </c>
       <c r="L6" t="n">
-        <v>1.007158018081381</v>
+        <v>0.7517793161669626</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2361822228206942</v>
+        <v>0.5746810619224821</v>
       </c>
       <c r="N6" t="n">
-        <v>135.9393697830775</v>
+        <v>36.3825234858431</v>
       </c>
       <c r="O6" t="n">
-        <v>215.1662983995105</v>
+        <v>57.10341250860251</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9876958803384297</v>
+        <v>0.9276415271715168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7281569707042246</v>
+        <v>0.6993549011790949</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7073050235450075</v>
+        <v>0.6340196682633583</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9293294115567557</v>
+        <v>0.8979521670387339</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05163775809114884</v>
+        <v>0.3036730313532488</v>
       </c>
       <c r="G7" t="n">
-        <v>1.817815588622903</v>
+        <v>2.010415160158781</v>
       </c>
       <c r="H7" t="n">
-        <v>1.046952959349656</v>
+        <v>1.309090425863065</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07496981820315272</v>
+        <v>0.1701868527466074</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5635544633587761</v>
+        <v>1.464796448255874</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2272394289975858</v>
+        <v>0.5510653603278369</v>
       </c>
       <c r="L7" t="n">
-        <v>1.007202411509212</v>
+        <v>0.7519138074452005</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2369134819404792</v>
+        <v>0.5745253535795485</v>
       </c>
       <c r="N7" t="n">
-        <v>135.9270042562753</v>
+        <v>36.38360742231812</v>
       </c>
       <c r="O7" t="n">
-        <v>215.1539328727084</v>
+        <v>57.10449644507753</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9876042013214646</v>
+        <v>0.9276789246107585</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7278513970287928</v>
+        <v>0.6991995351220875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7055758702875526</v>
+        <v>0.6341482557772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9240963857338848</v>
+        <v>0.8976919172734057</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05202251531314338</v>
+        <v>0.3035160823009065</v>
       </c>
       <c r="G8" t="n">
-        <v>1.819858961197554</v>
+        <v>2.011454093697385</v>
       </c>
       <c r="H8" t="n">
-        <v>1.053138040289505</v>
+        <v>1.308630475781628</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08052119400509776</v>
+        <v>0.1706208755690819</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5713197416396267</v>
+        <v>1.465598379987849</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2280844477669255</v>
+        <v>0.5509229368077776</v>
       </c>
       <c r="L8" t="n">
-        <v>1.00725607727524</v>
+        <v>0.7520420272368864</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2377944749082598</v>
+        <v>0.5743768667953829</v>
       </c>
       <c r="N8" t="n">
-        <v>135.9121573346424</v>
+        <v>36.38464136085429</v>
       </c>
       <c r="O8" t="n">
-        <v>215.1390859510755</v>
+        <v>57.1055303836137</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9874969122291428</v>
+        <v>0.9278111940111571</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7275363050578596</v>
+        <v>0.6987089732925671</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7038299176772251</v>
+        <v>0.6346337400712485</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9186210829683682</v>
+        <v>0.8965810525372295</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05247278468206331</v>
+        <v>0.3029609759228392</v>
       </c>
       <c r="G9" t="n">
-        <v>1.821965982658049</v>
+        <v>2.014734482910217</v>
       </c>
       <c r="H9" t="n">
-        <v>1.059383211540498</v>
+        <v>1.306893926612171</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08632958561439714</v>
+        <v>0.1724734829963144</v>
       </c>
       <c r="J9" t="n">
-        <v>0.579231604602886</v>
+        <v>1.468728972466002</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2290693883565923</v>
+        <v>0.5504189094887995</v>
       </c>
       <c r="L9" t="n">
-        <v>1.007318880646355</v>
+        <v>0.7524955223239671</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2388213464579368</v>
+        <v>0.5738513819899553</v>
       </c>
       <c r="N9" t="n">
-        <v>135.8949212616037</v>
+        <v>36.38830254820216</v>
       </c>
       <c r="O9" t="n">
-        <v>215.1218498780368</v>
+        <v>57.10919157096156</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9873741150472908</v>
+        <v>0.9278402265297577</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7272119955648988</v>
+        <v>0.6979437888770657</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7020673252893166</v>
+        <v>0.6347482586221411</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9129048801731851</v>
+        <v>0.8962878570149616</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05298813818521222</v>
+        <v>0.3028391326529821</v>
       </c>
       <c r="G10" t="n">
-        <v>1.824134641730785</v>
+        <v>2.019851274620026</v>
       </c>
       <c r="H10" t="n">
-        <v>1.065687902311068</v>
+        <v>1.306484300395795</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09239353235387279</v>
+        <v>0.1729624500005731</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5872856798635293</v>
+        <v>1.46948661730012</v>
       </c>
       <c r="K10" t="n">
-        <v>0.230191525007356</v>
+        <v>0.550308216050771</v>
       </c>
       <c r="L10" t="n">
-        <v>1.007390761923537</v>
+        <v>0.7525950623877408</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2399912547890666</v>
+        <v>0.5737359761031031</v>
       </c>
       <c r="N10" t="n">
-        <v>135.8753743966098</v>
+        <v>36.38910705958983</v>
       </c>
       <c r="O10" t="n">
-        <v>215.1023030130429</v>
+        <v>57.10999608234923</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9872358782586037</v>
+        <v>0.927867726731154</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7268787208906169</v>
+        <v>0.6978289539398854</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7002889493449446</v>
+        <v>0.6348599992836802</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9069498208193443</v>
+        <v>0.8959889764463875</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05356828841536764</v>
+        <v>0.3027237201906348</v>
       </c>
       <c r="G11" t="n">
-        <v>1.826363251012298</v>
+        <v>2.020619176373716</v>
       </c>
       <c r="H11" t="n">
-        <v>1.072049049947925</v>
+        <v>1.306084610528565</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09871086643840465</v>
+        <v>0.1734608980502446</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5954813638936587</v>
+        <v>1.470239485768045</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2314482413313345</v>
+        <v>0.5502033444015356</v>
       </c>
       <c r="L11" t="n">
-        <v>1.007471681019354</v>
+        <v>0.7526893487925281</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2413014721287182</v>
+        <v>0.5736266398506455</v>
       </c>
       <c r="N11" t="n">
-        <v>135.853596040063</v>
+        <v>36.38986940796178</v>
       </c>
       <c r="O11" t="n">
-        <v>215.0805246564961</v>
+        <v>57.11075843072118</v>
       </c>
     </row>
   </sheetData>
